--- a/examples/points/output/results_extrapolated.xlsx
+++ b/examples/points/output/results_extrapolated.xlsx
@@ -478,10 +478,10 @@
         <v>104.3826701130346</v>
       </c>
       <c r="D2" t="n">
-        <v>101.5038717948718</v>
+        <v>107.5903333333333</v>
       </c>
       <c r="E2" t="n">
-        <v>92.41861044832588</v>
+        <v>93.22177859282918</v>
       </c>
       <c r="F2" t="n">
         <v>134.5641025641026</v>
@@ -503,10 +503,10 @@
         <v>112.1535152410704</v>
       </c>
       <c r="D3" t="n">
-        <v>106.4914803921569</v>
+        <v>108.0356428571428</v>
       </c>
       <c r="E3" t="n">
-        <v>110.5575550716377</v>
+        <v>110.5897523849066</v>
       </c>
       <c r="F3" t="n">
         <v>134.5641025641026</v>
@@ -528,10 +528,10 @@
         <v>105.4964259103608</v>
       </c>
       <c r="D4" t="n">
-        <v>99.07408112475764</v>
+        <v>96.54772222222222</v>
       </c>
       <c r="E4" t="n">
-        <v>104.1301156494389</v>
+        <v>106.3577616906592</v>
       </c>
       <c r="F4" t="n">
         <v>117.4594594594595</v>
@@ -550,13 +550,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>80.91181390318307</v>
+        <v>80.91181390318312</v>
       </c>
       <c r="D5" t="n">
-        <v>86.88385474582398</v>
+        <v>87.31083116883117</v>
       </c>
       <c r="E5" t="n">
-        <v>80.83874238263836</v>
+        <v>80.6043156071775</v>
       </c>
       <c r="F5" t="n">
         <v>131.6969696969697</v>
@@ -575,13 +575,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>92.62316424432726</v>
+        <v>92.62316424432728</v>
       </c>
       <c r="D6" t="n">
-        <v>92.42017152412808</v>
+        <v>90.60443772639768</v>
       </c>
       <c r="E6" t="n">
-        <v>100.2994617669451</v>
+        <v>104.3875488763795</v>
       </c>
       <c r="F6" t="n">
         <v>117.4594594594595</v>
@@ -600,13 +600,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>92.59094300456805</v>
+        <v>92.59094300456803</v>
       </c>
       <c r="D7" t="n">
-        <v>96.56899038461539</v>
+        <v>94.43008333333336</v>
       </c>
       <c r="E7" t="n">
-        <v>100.5651985740536</v>
+        <v>102.4933215517154</v>
       </c>
       <c r="F7" t="n">
         <v>116.1666666666667</v>
@@ -625,13 +625,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>78.22698301053801</v>
+        <v>78.22698301053796</v>
       </c>
       <c r="D8" t="n">
-        <v>76.92914285714279</v>
+        <v>77.22235588972431</v>
       </c>
       <c r="E8" t="n">
-        <v>70.44432388762876</v>
+        <v>68.87217701435286</v>
       </c>
       <c r="F8" t="n">
         <v>107.8947368421053</v>
@@ -653,10 +653,10 @@
         <v>96.73386655770642</v>
       </c>
       <c r="D9" t="n">
-        <v>108.3194999999999</v>
+        <v>104.9161428571429</v>
       </c>
       <c r="E9" t="n">
-        <v>79.12473052354862</v>
+        <v>78.56541898343957</v>
       </c>
       <c r="F9" t="n">
         <v>100.9230769230769</v>
@@ -675,13 +675,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>95.40275779188271</v>
+        <v>95.40275779188266</v>
       </c>
       <c r="D10" t="n">
-        <v>97.04852380952376</v>
+        <v>95.76133333333331</v>
       </c>
       <c r="E10" t="n">
-        <v>78.23085518399274</v>
+        <v>79.11378453135755</v>
       </c>
       <c r="F10" t="n">
         <v>101.421052631579</v>
@@ -703,10 +703,10 @@
         <v>82.6632193949844</v>
       </c>
       <c r="D11" t="n">
-        <v>75.99975023342671</v>
+        <v>76.29968883893885</v>
       </c>
       <c r="E11" t="n">
-        <v>66.26852823994284</v>
+        <v>66.25483727326572</v>
       </c>
       <c r="F11" t="n">
         <v>99.26315789473684</v>
@@ -725,13 +725,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>113.7292926913751</v>
+        <v>113.7292926913752</v>
       </c>
       <c r="D12" t="n">
-        <v>103.0457239819004</v>
+        <v>98.28918903318903</v>
       </c>
       <c r="E12" t="n">
-        <v>124.7078804214217</v>
+        <v>113.2616612781054</v>
       </c>
       <c r="F12" t="n">
         <v>105.4285714285714</v>
@@ -750,13 +750,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>88.84371378175832</v>
+        <v>88.84371378175831</v>
       </c>
       <c r="D13" t="n">
-        <v>87.36944746257572</v>
+        <v>88.89037109673951</v>
       </c>
       <c r="E13" t="n">
-        <v>88.2044895481493</v>
+        <v>88.12686193651129</v>
       </c>
       <c r="F13" t="n">
         <v>97.10526315789473</v>
@@ -775,13 +775,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>90.95982290303616</v>
+        <v>90.95982290303618</v>
       </c>
       <c r="D14" t="n">
-        <v>70.26612554112549</v>
+        <v>73.5825</v>
       </c>
       <c r="E14" t="n">
-        <v>69.22963483922331</v>
+        <v>69.13116905007145</v>
       </c>
       <c r="F14" t="n">
         <v>108.5294117647059</v>
@@ -800,13 +800,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>93.24989834035239</v>
+        <v>93.24989834035242</v>
       </c>
       <c r="D15" t="n">
-        <v>89.48225000000004</v>
+        <v>87.0709642857143</v>
       </c>
       <c r="E15" t="n">
-        <v>93.94210612832268</v>
+        <v>95.8367611275273</v>
       </c>
       <c r="F15" t="n">
         <v>119.0322580645161</v>
@@ -825,13 +825,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>89.77059612517023</v>
+        <v>89.77059612517021</v>
       </c>
       <c r="D16" t="n">
-        <v>85.62709920634924</v>
+        <v>83.28643504925029</v>
       </c>
       <c r="E16" t="n">
-        <v>86.13442757180638</v>
+        <v>85.04762881665484</v>
       </c>
       <c r="F16" t="n">
         <v>90.41025641025642</v>
@@ -850,13 +850,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>91.67187942299465</v>
+        <v>91.67187942299466</v>
       </c>
       <c r="D17" t="n">
-        <v>90.3361286868447</v>
+        <v>91.23563095238094</v>
       </c>
       <c r="E17" t="n">
-        <v>86.49135768991697</v>
+        <v>86.18221046973093</v>
       </c>
       <c r="F17" t="n">
         <v>95.29729729729729</v>
@@ -875,13 +875,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>88.39119611295682</v>
+        <v>88.39119611295681</v>
       </c>
       <c r="D18" t="n">
-        <v>88.88421142741214</v>
+        <v>88.25016203241202</v>
       </c>
       <c r="E18" t="n">
-        <v>85.65794404837271</v>
+        <v>85.30512107028534</v>
       </c>
       <c r="F18" t="n">
         <v>100.7428571428571</v>
@@ -900,13 +900,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>74.59212756886485</v>
+        <v>74.59212756886478</v>
       </c>
       <c r="D19" t="n">
-        <v>74.2969213667068</v>
+        <v>74.63849841845995</v>
       </c>
       <c r="E19" t="n">
-        <v>68.12133429472554</v>
+        <v>67.64666226763417</v>
       </c>
       <c r="F19" t="n">
         <v>97.94444444444444</v>
@@ -925,13 +925,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>91.90886110263031</v>
+        <v>91.90886110263034</v>
       </c>
       <c r="D20" t="n">
-        <v>84.82674545197825</v>
+        <v>87.26445318036473</v>
       </c>
       <c r="E20" t="n">
-        <v>114.1116700919148</v>
+        <v>112.9322469656593</v>
       </c>
       <c r="F20" t="n">
         <v>98.39999999999999</v>
@@ -953,10 +953,10 @@
         <v>97.73003809279209</v>
       </c>
       <c r="D21" t="n">
-        <v>96.71658004250646</v>
+        <v>97.04942857142855</v>
       </c>
       <c r="E21" t="n">
-        <v>104.8956494049192</v>
+        <v>105.1977767900114</v>
       </c>
       <c r="F21" t="n">
         <v>90.86486486486487</v>
@@ -975,13 +975,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>85.54278966193702</v>
+        <v>85.54278966193704</v>
       </c>
       <c r="D22" t="n">
-        <v>77.1319523809523</v>
+        <v>78.59690476190477</v>
       </c>
       <c r="E22" t="n">
-        <v>73.31610331922683</v>
+        <v>73.02816442887567</v>
       </c>
       <c r="F22" t="n">
         <v>90.86486486486487</v>
@@ -1000,13 +1000,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>74.25554585126909</v>
+        <v>74.25554585126906</v>
       </c>
       <c r="D23" t="n">
-        <v>72.33909423425892</v>
+        <v>72.84422571434413</v>
       </c>
       <c r="E23" t="n">
-        <v>80.75195265364516</v>
+        <v>81.10351744622741</v>
       </c>
       <c r="F23" t="n">
         <v>82</v>
@@ -1025,13 +1025,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>98.77731511259394</v>
+        <v>98.77731511259395</v>
       </c>
       <c r="D24" t="n">
-        <v>85.34545634920636</v>
+        <v>82.88698917748917</v>
       </c>
       <c r="E24" t="n">
-        <v>82.95458894525305</v>
+        <v>82.96395256472506</v>
       </c>
       <c r="F24" t="n">
         <v>84.10256410256409</v>
@@ -1050,13 +1050,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>52.67757766604451</v>
+        <v>52.67757766604452</v>
       </c>
       <c r="D25" t="n">
-        <v>47.68127012544141</v>
+        <v>46.1957376496053</v>
       </c>
       <c r="E25" t="n">
-        <v>53.62150212677579</v>
+        <v>53.1647271626743</v>
       </c>
       <c r="F25" t="n">
         <v>84.15789473684211</v>
@@ -1075,13 +1075,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>90.19974404423637</v>
+        <v>90.19974404423638</v>
       </c>
       <c r="D26" t="n">
-        <v>83.72492636285286</v>
+        <v>84.59313389388392</v>
       </c>
       <c r="E26" t="n">
-        <v>105.0799772528365</v>
+        <v>102.6120113051464</v>
       </c>
       <c r="F26" t="n">
         <v>91.37142857142858</v>
@@ -1100,13 +1100,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>87.84072865127878</v>
+        <v>87.84072865127879</v>
       </c>
       <c r="D27" t="n">
-        <v>89.23642836366848</v>
+        <v>85.34568650793652</v>
       </c>
       <c r="E27" t="n">
-        <v>90.66529264460947</v>
+        <v>89.68214706565217</v>
       </c>
       <c r="F27" t="n">
         <v>84.15789473684211</v>
@@ -1128,10 +1128,10 @@
         <v>73.38010990958631</v>
       </c>
       <c r="D28" t="n">
-        <v>71.68944083694079</v>
+        <v>73.01594488844491</v>
       </c>
       <c r="E28" t="n">
-        <v>64.22981010334505</v>
+        <v>64.44987696099734</v>
       </c>
       <c r="F28" t="n">
         <v>86.43243243243242</v>
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>76.38117125784616</v>
+        <v>76.38117125784615</v>
       </c>
       <c r="D29" t="n">
-        <v>81.79001306244493</v>
+        <v>83.69159409938722</v>
       </c>
       <c r="E29" t="n">
-        <v>94.06986694977545</v>
+        <v>95.71069225889612</v>
       </c>
       <c r="F29" t="n">
         <v>88.83333333333333</v>
@@ -1175,13 +1175,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>61.81611602913808</v>
+        <v>61.81611602913811</v>
       </c>
       <c r="D30" t="n">
-        <v>74.25401636076508</v>
+        <v>72.90991740578264</v>
       </c>
       <c r="E30" t="n">
-        <v>66.83114948024141</v>
+        <v>68.75591146264922</v>
       </c>
       <c r="F30" t="n">
         <v>84.21621621621621</v>
@@ -1200,13 +1200,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>62.83837766086762</v>
+        <v>62.83837766086756</v>
       </c>
       <c r="D31" t="n">
-        <v>65.37153475935823</v>
+        <v>66.27548802178214</v>
       </c>
       <c r="E31" t="n">
-        <v>59.89077045068458</v>
+        <v>62.12613215079234</v>
       </c>
       <c r="F31" t="n">
         <v>79.8974358974359</v>
@@ -1225,13 +1225,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>72.44733113895562</v>
+        <v>72.44733113895563</v>
       </c>
       <c r="D32" t="n">
-        <v>81.31253208779523</v>
+        <v>76.4483952991453</v>
       </c>
       <c r="E32" t="n">
-        <v>84.92631678310936</v>
+        <v>85.00227416100574</v>
       </c>
       <c r="F32" t="n">
         <v>84.21621621621621</v>
@@ -1250,13 +1250,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>87.71890800414803</v>
+        <v>87.71890800414806</v>
       </c>
       <c r="D33" t="n">
-        <v>83.09345961975123</v>
+        <v>82.4938212898213</v>
       </c>
       <c r="E33" t="n">
-        <v>82.34722491177425</v>
+        <v>83.27841534364032</v>
       </c>
       <c r="F33" t="n">
         <v>84.21621621621621</v>
@@ -1278,10 +1278,10 @@
         <v>102.1891921544255</v>
       </c>
       <c r="D34" t="n">
-        <v>95.70243187994713</v>
+        <v>95.77109523809524</v>
       </c>
       <c r="E34" t="n">
-        <v>113.4372144793684</v>
+        <v>113.0671647608415</v>
       </c>
       <c r="F34" t="n">
         <v>84.21621621621621</v>
@@ -1300,13 +1300,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>70.23733413771727</v>
+        <v>70.23733413771726</v>
       </c>
       <c r="D35" t="n">
-        <v>72.81027450138176</v>
+        <v>71.81625759337282</v>
       </c>
       <c r="E35" t="n">
-        <v>84.34982274261192</v>
+        <v>84.80428225115239</v>
       </c>
       <c r="F35" t="n">
         <v>79.8974358974359</v>
@@ -1328,10 +1328,10 @@
         <v>80.58006022072664</v>
       </c>
       <c r="D36" t="n">
-        <v>60.86499999999997</v>
+        <v>64.745</v>
       </c>
       <c r="E36" t="n">
-        <v>69.45078970114332</v>
+        <v>71.06818001134287</v>
       </c>
       <c r="F36" t="n">
         <v>82</v>
@@ -1353,10 +1353,10 @@
         <v>99.19986796130698</v>
       </c>
       <c r="D37" t="n">
-        <v>99.71779973947621</v>
+        <v>98.27117460317459</v>
       </c>
       <c r="E37" t="n">
-        <v>104.5353665252172</v>
+        <v>104.767147222412</v>
       </c>
       <c r="F37" t="n">
         <v>89.23529411764706</v>
@@ -1375,13 +1375,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>79.65295225591201</v>
+        <v>79.65295225591203</v>
       </c>
       <c r="D38" t="n">
-        <v>75.69212230304959</v>
+        <v>73.85296193022664</v>
       </c>
       <c r="E38" t="n">
-        <v>61.50184589139641</v>
+        <v>62.62108338729916</v>
       </c>
       <c r="F38" t="n">
         <v>82</v>
@@ -1403,10 +1403,10 @@
         <v>66.96352775131626</v>
       </c>
       <c r="D39" t="n">
-        <v>73.44947692887774</v>
+        <v>73.0564278665862</v>
       </c>
       <c r="E39" t="n">
-        <v>84.13558230350904</v>
+        <v>84.32844345772659</v>
       </c>
       <c r="F39" t="n">
         <v>82</v>
@@ -1425,13 +1425,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>72.23365930016838</v>
+        <v>72.2336593001684</v>
       </c>
       <c r="D40" t="n">
-        <v>67.27067000488805</v>
+        <v>67.30198646013429</v>
       </c>
       <c r="E40" t="n">
-        <v>66.48679715358482</v>
+        <v>66.58065307444987</v>
       </c>
       <c r="F40" t="n">
         <v>79.78378378378379</v>
@@ -1450,13 +1450,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>85.44304591105841</v>
+        <v>85.44304591105842</v>
       </c>
       <c r="D41" t="n">
-        <v>65.81910418992767</v>
+        <v>68.46112235803413</v>
       </c>
       <c r="E41" t="n">
-        <v>74.43082809875119</v>
+        <v>73.95329489243024</v>
       </c>
       <c r="F41" t="n">
         <v>84.34285714285713</v>
@@ -1478,10 +1478,10 @@
         <v>87.71399971537014</v>
       </c>
       <c r="D42" t="n">
-        <v>83.72489235065555</v>
+        <v>84.50506616161614</v>
       </c>
       <c r="E42" t="n">
-        <v>70.43969214719792</v>
+        <v>67.60302801946881</v>
       </c>
       <c r="F42" t="n">
         <v>77.68421052631578</v>
@@ -1500,13 +1500,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>70.72145719632346</v>
+        <v>70.72145719632343</v>
       </c>
       <c r="D43" t="n">
-        <v>66.21636219336219</v>
+        <v>65.68159523809523</v>
       </c>
       <c r="E43" t="n">
-        <v>43.14785233075496</v>
+        <v>40.93105597706239</v>
       </c>
       <c r="F43" t="n">
         <v>84.34285714285713</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>66.86506424055258</v>
+        <v>66.86506424055261</v>
       </c>
       <c r="D44" t="n">
-        <v>68.92885452449592</v>
+        <v>67.2467835629283</v>
       </c>
       <c r="E44" t="n">
-        <v>73.64362656249314</v>
+        <v>74.01356108487461</v>
       </c>
       <c r="F44" t="n">
         <v>77.56756756756756</v>
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>89.69847753640079</v>
+        <v>89.69847753640076</v>
       </c>
       <c r="D45" t="n">
-        <v>73.0310091575091</v>
+        <v>77.27902255639098</v>
       </c>
       <c r="E45" t="n">
-        <v>67.84056181065553</v>
+        <v>73.59997269098109</v>
       </c>
       <c r="F45" t="n">
         <v>82</v>
@@ -1575,13 +1575,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>75.08066469674048</v>
+        <v>75.08066469674046</v>
       </c>
       <c r="D46" t="n">
-        <v>79.81691856566859</v>
+        <v>81.95771909319585</v>
       </c>
       <c r="E46" t="n">
-        <v>80.72428239228229</v>
+        <v>81.16922345481437</v>
       </c>
       <c r="F46" t="n">
         <v>77.56756756756756</v>
@@ -1600,13 +1600,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>85.45251258773048</v>
+        <v>85.45251258773041</v>
       </c>
       <c r="D47" t="n">
-        <v>83.02273534798533</v>
+        <v>85.95110791985792</v>
       </c>
       <c r="E47" t="n">
-        <v>66.31138835671346</v>
+        <v>65.75208899264821</v>
       </c>
       <c r="F47" t="n">
         <v>77.56756756756756</v>
@@ -1625,13 +1625,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>77.30113364596299</v>
+        <v>77.30113364596301</v>
       </c>
       <c r="D48" t="n">
-        <v>82.07583604119482</v>
+        <v>79.93057905982906</v>
       </c>
       <c r="E48" t="n">
-        <v>85.19948047694129</v>
+        <v>84.68774418231192</v>
       </c>
       <c r="F48" t="n">
         <v>82</v>
@@ -1650,13 +1650,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>67.13248623313407</v>
+        <v>67.13248623313405</v>
       </c>
       <c r="D49" t="n">
-        <v>87.85074647574648</v>
+        <v>85.82066239316241</v>
       </c>
       <c r="E49" t="n">
-        <v>99.49071105618732</v>
+        <v>98.76754196457962</v>
       </c>
       <c r="F49" t="n">
         <v>75.52631578947368</v>
@@ -1675,13 +1675,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>79.71035411430444</v>
+        <v>79.71035411430441</v>
       </c>
       <c r="D50" t="n">
-        <v>69.54925757575757</v>
+        <v>67.49313888888889</v>
       </c>
       <c r="E50" t="n">
-        <v>63.58848844550216</v>
+        <v>65.38458823829586</v>
       </c>
       <c r="F50" t="n">
         <v>77.44444444444444</v>
@@ -1700,13 +1700,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>83.73544318200207</v>
+        <v>83.73544318200203</v>
       </c>
       <c r="D51" t="n">
-        <v>79.269326990577</v>
+        <v>80.97015258171781</v>
       </c>
       <c r="E51" t="n">
-        <v>76.82918217896972</v>
+        <v>77.00408768439787</v>
       </c>
       <c r="F51" t="n">
         <v>82</v>
@@ -1725,13 +1725,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>60.89725284857072</v>
+        <v>60.89725284857077</v>
       </c>
       <c r="D52" t="n">
-        <v>65.14527652120843</v>
+        <v>64.7658778100984</v>
       </c>
       <c r="E52" t="n">
-        <v>61.86683248213645</v>
+        <v>62.57700979266476</v>
       </c>
       <c r="F52" t="n">
         <v>73.36842105263158</v>
@@ -1750,13 +1750,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>73.09983853357289</v>
+        <v>73.09983853357292</v>
       </c>
       <c r="D53" t="n">
-        <v>59.60411904761901</v>
+        <v>61.88748412698413</v>
       </c>
       <c r="E53" t="n">
-        <v>43.97309416119033</v>
+        <v>42.98279962227506</v>
       </c>
       <c r="F53" t="n">
         <v>82</v>
@@ -1775,13 +1775,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>69.57362787748926</v>
+        <v>69.57362787748929</v>
       </c>
       <c r="D54" t="n">
-        <v>71.79535904738532</v>
+        <v>70.84762499110796</v>
       </c>
       <c r="E54" t="n">
-        <v>83.55702243496167</v>
+        <v>84.74712956655732</v>
       </c>
       <c r="F54" t="n">
         <v>69.38461538461539</v>
@@ -1803,10 +1803,10 @@
         <v>85.06366496160743</v>
       </c>
       <c r="D55" t="n">
-        <v>71.97400000000002</v>
+        <v>68.89506060606061</v>
       </c>
       <c r="E55" t="n">
-        <v>45.68726914555513</v>
+        <v>44.96948004995688</v>
       </c>
       <c r="F55" t="n">
         <v>75.16666666666666</v>
@@ -1825,13 +1825,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>64.27946767472547</v>
+        <v>64.27946767472548</v>
       </c>
       <c r="D56" t="n">
-        <v>74.77023697803911</v>
+        <v>71.30865022296544</v>
       </c>
       <c r="E56" t="n">
-        <v>83.40845969921858</v>
+        <v>83.79255857783977</v>
       </c>
       <c r="F56" t="n">
         <v>71.21052631578948</v>
@@ -1850,13 +1850,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>55.24906887204086</v>
+        <v>55.24906887204089</v>
       </c>
       <c r="D57" t="n">
-        <v>55.92629233359701</v>
+        <v>50.55994410491469</v>
       </c>
       <c r="E57" t="n">
-        <v>63.10623327795125</v>
+        <v>64.52295953318946</v>
       </c>
       <c r="F57" t="n">
         <v>69.38461538461539</v>
@@ -1878,10 +1878,10 @@
         <v>75.19995842163232</v>
       </c>
       <c r="D58" t="n">
-        <v>73.6217591104071</v>
+        <v>73.11021048396049</v>
       </c>
       <c r="E58" t="n">
-        <v>75.05191956763765</v>
+        <v>75.40238864319213</v>
       </c>
       <c r="F58" t="n">
         <v>77.31428571428572</v>
@@ -1900,13 +1900,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>60.64246085659114</v>
+        <v>60.64246085659116</v>
       </c>
       <c r="D59" t="n">
-        <v>61.66929487179484</v>
+        <v>60.78175</v>
       </c>
       <c r="E59" t="n">
-        <v>64.01600132630165</v>
+        <v>64.50264794158385</v>
       </c>
       <c r="F59" t="n">
         <v>69.38461538461539</v>
@@ -1925,13 +1925,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>62.61145384202167</v>
+        <v>62.61145384202172</v>
       </c>
       <c r="D60" t="n">
-        <v>76.22542106153874</v>
+        <v>73.87430043941568</v>
       </c>
       <c r="E60" t="n">
-        <v>80.34369916457423</v>
+        <v>80.38371234904969</v>
       </c>
       <c r="F60" t="n">
         <v>71.21052631578948</v>
@@ -1953,10 +1953,10 @@
         <v>70.19109848436165</v>
       </c>
       <c r="D61" t="n">
-        <v>72.97694581284892</v>
+        <v>74.79847573375172</v>
       </c>
       <c r="E61" t="n">
-        <v>67.0143922957851</v>
+        <v>70.65340270233848</v>
       </c>
       <c r="F61" t="n">
         <v>70.91891891891892</v>
@@ -1975,13 +1975,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>66.54060338699031</v>
+        <v>66.54060338699034</v>
       </c>
       <c r="D62" t="n">
-        <v>76.65822339835515</v>
+        <v>75.49899847374849</v>
       </c>
       <c r="E62" t="n">
-        <v>78.16487786912337</v>
+        <v>77.90091862368968</v>
       </c>
       <c r="F62" t="n">
         <v>69.05263157894737</v>
@@ -2000,13 +2000,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>69.61883377337863</v>
+        <v>69.61883377337861</v>
       </c>
       <c r="D63" t="n">
-        <v>82.19629057174711</v>
+        <v>83.19597113997115</v>
       </c>
       <c r="E63" t="n">
-        <v>87.86104126232348</v>
+        <v>90.20487535562832</v>
       </c>
       <c r="F63" t="n">
         <v>79.51515151515152</v>
@@ -2025,13 +2025,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>68.51088765496955</v>
+        <v>68.51088765496957</v>
       </c>
       <c r="D64" t="n">
-        <v>68.97055044711897</v>
+        <v>69.90095205189223</v>
       </c>
       <c r="E64" t="n">
-        <v>41.24590452266915</v>
+        <v>39.5840504766525</v>
       </c>
       <c r="F64" t="n">
         <v>74.76470588235294</v>
@@ -2050,13 +2050,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>75.29079632213842</v>
+        <v>75.29079632213845</v>
       </c>
       <c r="D65" t="n">
-        <v>61.52292857142853</v>
+        <v>62.18522222222223</v>
       </c>
       <c r="E65" t="n">
-        <v>54.43806737331826</v>
+        <v>55.22795257724892</v>
       </c>
       <c r="F65" t="n">
         <v>65.17948717948718</v>
@@ -2078,10 +2078,10 @@
         <v>74.35262755399361</v>
       </c>
       <c r="D66" t="n">
-        <v>71.50123616473618</v>
+        <v>69.94278353409875</v>
       </c>
       <c r="E66" t="n">
-        <v>84.57337069475646</v>
+        <v>84.51594308576362</v>
       </c>
       <c r="F66" t="n">
         <v>70.61111111111111</v>
@@ -2103,10 +2103,10 @@
         <v>54.20558431234402</v>
       </c>
       <c r="D67" t="n">
-        <v>45.91155952380947</v>
+        <v>45.93173701298701</v>
       </c>
       <c r="E67" t="n">
-        <v>50.38048527065806</v>
+        <v>49.37440908061437</v>
       </c>
       <c r="F67" t="n">
         <v>72.62857142857142</v>
@@ -2128,10 +2128,10 @@
         <v>68.4039158949858</v>
       </c>
       <c r="D68" t="n">
-        <v>55.59007142857139</v>
+        <v>56.71090836940837</v>
       </c>
       <c r="E68" t="n">
-        <v>42.25926759588269</v>
+        <v>44.88783420621084</v>
       </c>
       <c r="F68" t="n">
         <v>66.89473684210526</v>
@@ -2150,13 +2150,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>64.45297734509346</v>
+        <v>64.45297734509344</v>
       </c>
       <c r="D69" t="n">
-        <v>74.04558927117081</v>
+        <v>78.99327574189095</v>
       </c>
       <c r="E69" t="n">
-        <v>83.87921119160588</v>
+        <v>82.5221750012727</v>
       </c>
       <c r="F69" t="n">
         <v>68.70270270270271</v>
@@ -2175,13 +2175,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>57.47338262051283</v>
+        <v>57.47338262051284</v>
       </c>
       <c r="D70" t="n">
-        <v>62.47552057305053</v>
+        <v>62.7231181122799</v>
       </c>
       <c r="E70" t="n">
-        <v>61.84519863531806</v>
+        <v>61.60665569959939</v>
       </c>
       <c r="F70" t="n">
         <v>63.55</v>
@@ -2200,13 +2200,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>62.46113209933921</v>
+        <v>62.46113209933925</v>
       </c>
       <c r="D71" t="n">
-        <v>73.11299707602339</v>
+        <v>71.92659451659452</v>
       </c>
       <c r="E71" t="n">
-        <v>84.57417979436629</v>
+        <v>84.20612937453072</v>
       </c>
       <c r="F71" t="n">
         <v>66.89473684210526</v>
@@ -2228,10 +2228,10 @@
         <v>54.84406091391971</v>
       </c>
       <c r="D72" t="n">
-        <v>52.76838585434169</v>
+        <v>54.08317169595112</v>
       </c>
       <c r="E72" t="n">
-        <v>42.98905311088793</v>
+        <v>43.60044808878992</v>
       </c>
       <c r="F72" t="n">
         <v>65.17948717948718</v>
@@ -2250,13 +2250,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>51.55730487538352</v>
+        <v>51.5573048753835</v>
       </c>
       <c r="D73" t="n">
-        <v>46.0378106500494</v>
+        <v>45.53896325896326</v>
       </c>
       <c r="E73" t="n">
-        <v>42.33090095257942</v>
+        <v>42.73971454600921</v>
       </c>
       <c r="F73" t="n">
         <v>63.07692307692308</v>
@@ -2275,13 +2275,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>74.33759486272028</v>
+        <v>74.33759486272027</v>
       </c>
       <c r="D74" t="n">
-        <v>64.83232251082249</v>
+        <v>64.86650000000002</v>
       </c>
       <c r="E74" t="n">
-        <v>69.99643721240656</v>
+        <v>69.53723545817162</v>
       </c>
       <c r="F74" t="n">
         <v>66.48648648648648</v>
@@ -2300,13 +2300,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>67.20942781843486</v>
+        <v>67.20942781843488</v>
       </c>
       <c r="D75" t="n">
-        <v>67.46378858347477</v>
+        <v>68.42324340008651</v>
       </c>
       <c r="E75" t="n">
-        <v>71.71834823243174</v>
+        <v>70.67634318144363</v>
       </c>
       <c r="F75" t="n">
         <v>72.35294117647058</v>
@@ -2325,13 +2325,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>66.4020606268754</v>
+        <v>66.40206062687534</v>
       </c>
       <c r="D76" t="n">
-        <v>76.29569474969472</v>
+        <v>77.44861904761906</v>
       </c>
       <c r="E76" t="n">
-        <v>66.22220207874963</v>
+        <v>67.5679084659906</v>
       </c>
       <c r="F76" t="n">
         <v>62.57894736842105</v>
@@ -2350,13 +2350,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>55.75771928193906</v>
+        <v>55.75771928193907</v>
       </c>
       <c r="D77" t="n">
-        <v>51.43669047619041</v>
+        <v>50.21451623376623</v>
       </c>
       <c r="E77" t="n">
-        <v>54.33634890506908</v>
+        <v>55.26630884030883</v>
       </c>
       <c r="F77" t="n">
         <v>66.05555555555556</v>
@@ -2375,13 +2375,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>78.32869743581543</v>
+        <v>78.3286974358154</v>
       </c>
       <c r="D78" t="n">
-        <v>89.09104820544952</v>
+        <v>84.38729670329671</v>
       </c>
       <c r="E78" t="n">
-        <v>62.36492290430471</v>
+        <v>62.96883218565239</v>
       </c>
       <c r="F78" t="n">
         <v>67.94285714285715</v>
@@ -2403,10 +2403,10 @@
         <v>58.8044275998305</v>
       </c>
       <c r="D79" t="n">
-        <v>45.8401133588633</v>
+        <v>46.06708333333333</v>
       </c>
       <c r="E79" t="n">
-        <v>48.92274971530279</v>
+        <v>51.70791160055366</v>
       </c>
       <c r="F79" t="n">
         <v>60.97435897435898</v>
@@ -2425,13 +2425,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>60.49948181518843</v>
+        <v>60.49948181518844</v>
       </c>
       <c r="D80" t="n">
-        <v>57.62469047619044</v>
+        <v>56.34133333333334</v>
       </c>
       <c r="E80" t="n">
-        <v>44.86783339066022</v>
+        <v>44.69406100508454</v>
       </c>
       <c r="F80" t="n">
         <v>64.27027027027027</v>
@@ -2453,10 +2453,10 @@
         <v>58.48901712755262</v>
       </c>
       <c r="D81" t="n">
-        <v>50.39795289855065</v>
+        <v>51.7202840909091</v>
       </c>
       <c r="E81" t="n">
-        <v>46.04918942849115</v>
+        <v>68.95109803213595</v>
       </c>
       <c r="F81" t="n">
         <v>62.57894736842105</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>60.33264782876829</v>
+        <v>60.33264782876827</v>
       </c>
       <c r="D82" t="n">
-        <v>53.44949122807014</v>
+        <v>56.68632051282052</v>
       </c>
       <c r="E82" t="n">
-        <v>65.3005971524924</v>
+        <v>65.57807641882354</v>
       </c>
       <c r="F82" t="n">
         <v>62.57894736842105</v>
@@ -2500,13 +2500,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>52.53734871859642</v>
+        <v>52.53734871859643</v>
       </c>
       <c r="D83" t="n">
-        <v>49.33205952380947</v>
+        <v>49.26358333333334</v>
       </c>
       <c r="E83" t="n">
-        <v>43.69294949662714</v>
+        <v>43.00230140815813</v>
       </c>
       <c r="F83" t="n">
         <v>82</v>
@@ -2525,13 +2525,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>69.06420912536581</v>
+        <v>69.06420912536584</v>
       </c>
       <c r="D84" t="n">
-        <v>59.02403296703289</v>
+        <v>57.13019696969697</v>
       </c>
       <c r="E84" t="n">
-        <v>44.67056551774914</v>
+        <v>44.40061921475591</v>
       </c>
       <c r="F84" t="n">
         <v>62.05405405405406</v>
@@ -2550,13 +2550,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>68.34623936671099</v>
+        <v>68.34623936671102</v>
       </c>
       <c r="D85" t="n">
-        <v>64.4890226440226</v>
+        <v>64.60185042735043</v>
       </c>
       <c r="E85" t="n">
-        <v>63.25362155982111</v>
+        <v>66.5320323082375</v>
       </c>
       <c r="F85" t="n">
         <v>62.05405405405406</v>
@@ -2575,13 +2575,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>51.22328169559828</v>
+        <v>51.22328169559831</v>
       </c>
       <c r="D86" t="n">
-        <v>65.64301536449817</v>
+        <v>68.25732972419738</v>
       </c>
       <c r="E86" t="n">
-        <v>70.39592574983809</v>
+        <v>73.86652140172615</v>
       </c>
       <c r="F86" t="n">
         <v>60.42105263157895</v>
@@ -2600,13 +2600,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>76.52484356504118</v>
+        <v>76.52484356504115</v>
       </c>
       <c r="D87" t="n">
-        <v>76.6799338235294</v>
+        <v>77.31892731829574</v>
       </c>
       <c r="E87" t="n">
-        <v>83.85245505644095</v>
+        <v>84.5425268252589</v>
       </c>
       <c r="F87" t="n">
         <v>62.05405405405406</v>
@@ -2625,13 +2625,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>99.75226951316935</v>
+        <v>99.75226951316927</v>
       </c>
       <c r="D88" t="n">
-        <v>91.5887869087434</v>
+        <v>93.1353354978355</v>
       </c>
       <c r="E88" t="n">
-        <v>109.6257612139806</v>
+        <v>109.5442190975059</v>
       </c>
       <c r="F88" t="n">
         <v>88.30769230769231</v>
@@ -2650,13 +2650,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>66.09758632886951</v>
+        <v>66.09758632886954</v>
       </c>
       <c r="D89" t="n">
-        <v>61.18813961038959</v>
+        <v>59.81150793650794</v>
       </c>
       <c r="E89" t="n">
-        <v>61.02613330055043</v>
+        <v>61.11165663944147</v>
       </c>
       <c r="F89" t="n">
         <v>58.26315789473684</v>
@@ -2675,13 +2675,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>60.37958903012487</v>
+        <v>60.3795890301249</v>
       </c>
       <c r="D90" t="n">
-        <v>67.48382705170809</v>
+        <v>65.10894784201308</v>
       </c>
       <c r="E90" t="n">
-        <v>64.44185244725789</v>
+        <v>64.54263827599159</v>
       </c>
       <c r="F90" t="n">
         <v>61.5</v>
@@ -2703,10 +2703,10 @@
         <v>70.00223245551362</v>
       </c>
       <c r="D91" t="n">
-        <v>72.48902826273479</v>
+        <v>69.1987333897986</v>
       </c>
       <c r="E91" t="n">
-        <v>83.8400627532202</v>
+        <v>84.31667619656582</v>
       </c>
       <c r="F91" t="n">
         <v>56.76923076923077</v>
@@ -2725,13 +2725,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>53.43895786493607</v>
+        <v>53.43895786493609</v>
       </c>
       <c r="D92" t="n">
-        <v>50.87399999999994</v>
+        <v>53.23230555555556</v>
       </c>
       <c r="E92" t="n">
-        <v>54.74106550552234</v>
+        <v>54.6528742839356</v>
       </c>
       <c r="F92" t="n">
         <v>58.26315789473684</v>
@@ -2753,10 +2753,10 @@
         <v>34.4915699909894</v>
       </c>
       <c r="D93" t="n">
-        <v>47.92199799346758</v>
+        <v>45.53744844508777</v>
       </c>
       <c r="E93" t="n">
-        <v>43.25919555195269</v>
+        <v>43.83802729396034</v>
       </c>
       <c r="F93" t="n">
         <v>58.26315789473684</v>
@@ -2775,13 +2775,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>67.75056163975816</v>
+        <v>67.75056163975813</v>
       </c>
       <c r="D94" t="n">
-        <v>75.51170833333333</v>
+        <v>75.72330128205128</v>
       </c>
       <c r="E94" t="n">
-        <v>69.56750297177466</v>
+        <v>70.08782485933297</v>
       </c>
       <c r="F94" t="n">
         <v>59.83783783783784</v>
@@ -2800,13 +2800,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>63.9266441021846</v>
+        <v>63.92664410218465</v>
       </c>
       <c r="D95" t="n">
-        <v>55.56107142857142</v>
+        <v>56.70815079365079</v>
       </c>
       <c r="E95" t="n">
-        <v>42.1191205329824</v>
+        <v>43.01979805697209</v>
       </c>
       <c r="F95" t="n">
         <v>59.83783783783784</v>
@@ -2828,10 +2828,10 @@
         <v>53.83864433353526</v>
       </c>
       <c r="D96" t="n">
-        <v>43.74653623188399</v>
+        <v>45.48941666666666</v>
       </c>
       <c r="E96" t="n">
-        <v>54.89959963313898</v>
+        <v>55.8131113146599</v>
       </c>
       <c r="F96" t="n">
         <v>59.83783783783784</v>
@@ -2850,13 +2850,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>80.83273999855686</v>
+        <v>80.83273999855689</v>
       </c>
       <c r="D97" t="n">
-        <v>74.09319419306182</v>
+        <v>73.32907295482296</v>
       </c>
       <c r="E97" t="n">
-        <v>66.46634352685889</v>
+        <v>66.26825988809155</v>
       </c>
       <c r="F97" t="n">
         <v>65.11764705882352</v>
@@ -2875,13 +2875,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>79.74053036725047</v>
+        <v>79.74053036725044</v>
       </c>
       <c r="D98" t="n">
-        <v>68.42400000000001</v>
+        <v>69.78631746031746</v>
       </c>
       <c r="E98" t="n">
-        <v>47.39451980539109</v>
+        <v>45.01168911015738</v>
       </c>
       <c r="F98" t="n">
         <v>58.26315789473684</v>
@@ -2900,13 +2900,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>54.45337854388877</v>
+        <v>54.45337854388874</v>
       </c>
       <c r="D99" t="n">
-        <v>36.90056451955531</v>
+        <v>36.5953863913864</v>
       </c>
       <c r="E99" t="n">
-        <v>36.00199432150909</v>
+        <v>28.36209471926037</v>
       </c>
       <c r="F99" t="n">
         <v>59.83783783783784</v>
@@ -2928,10 +2928,10 @@
         <v>72.98143862707141</v>
       </c>
       <c r="D100" t="n">
-        <v>66.12554580309605</v>
+        <v>64.68390664942213</v>
       </c>
       <c r="E100" t="n">
-        <v>64.48867295321196</v>
+        <v>65.95457691619789</v>
       </c>
       <c r="F100" t="n">
         <v>58.26315789473684</v>
@@ -2950,13 +2950,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>62.50546735414478</v>
+        <v>62.50546735414476</v>
       </c>
       <c r="D101" t="n">
-        <v>52.87829761904757</v>
+        <v>54.94238095238095</v>
       </c>
       <c r="E101" t="n">
-        <v>45.87636347369037</v>
+        <v>73.65440013018315</v>
       </c>
       <c r="F101" t="n">
         <v>63.25714285714286</v>

--- a/examples/points/output/results_extrapolated.xlsx
+++ b/examples/points/output/results_extrapolated.xlsx
@@ -478,10 +478,10 @@
         <v>104.3826701130346</v>
       </c>
       <c r="D2" t="n">
-        <v>107.5903333333333</v>
+        <v>103.6195895281189</v>
       </c>
       <c r="E2" t="n">
-        <v>93.22177859282918</v>
+        <v>93.15842559012583</v>
       </c>
       <c r="F2" t="n">
         <v>134.5641025641026</v>
@@ -503,10 +503,10 @@
         <v>112.1535152410704</v>
       </c>
       <c r="D3" t="n">
-        <v>108.0356428571428</v>
+        <v>107.2828676813383</v>
       </c>
       <c r="E3" t="n">
-        <v>110.5897523849066</v>
+        <v>110.5825040761462</v>
       </c>
       <c r="F3" t="n">
         <v>134.5641025641026</v>
@@ -528,10 +528,10 @@
         <v>105.4964259103608</v>
       </c>
       <c r="D4" t="n">
-        <v>96.54772222222222</v>
+        <v>100.1314388988205</v>
       </c>
       <c r="E4" t="n">
-        <v>106.3577616906592</v>
+        <v>107.9349172266739</v>
       </c>
       <c r="F4" t="n">
         <v>117.4594594594595</v>
@@ -553,10 +553,10 @@
         <v>80.91181390318312</v>
       </c>
       <c r="D5" t="n">
-        <v>87.31083116883117</v>
+        <v>87.84648744822429</v>
       </c>
       <c r="E5" t="n">
-        <v>80.6043156071775</v>
+        <v>80.74842884462376</v>
       </c>
       <c r="F5" t="n">
         <v>131.6969696969697</v>
@@ -578,10 +578,10 @@
         <v>92.62316424432728</v>
       </c>
       <c r="D6" t="n">
-        <v>90.60443772639768</v>
+        <v>88.35957561516871</v>
       </c>
       <c r="E6" t="n">
-        <v>104.3875488763795</v>
+        <v>105.4271303522701</v>
       </c>
       <c r="F6" t="n">
         <v>117.4594594594595</v>
@@ -603,10 +603,10 @@
         <v>92.59094300456803</v>
       </c>
       <c r="D7" t="n">
-        <v>94.43008333333336</v>
+        <v>90.70797869674185</v>
       </c>
       <c r="E7" t="n">
-        <v>102.4933215517154</v>
+        <v>103.2805956666025</v>
       </c>
       <c r="F7" t="n">
         <v>116.1666666666667</v>
@@ -628,10 +628,10 @@
         <v>78.22698301053796</v>
       </c>
       <c r="D8" t="n">
-        <v>77.22235588972431</v>
+        <v>79.22906837606837</v>
       </c>
       <c r="E8" t="n">
-        <v>68.87217701435286</v>
+        <v>68.75256654370446</v>
       </c>
       <c r="F8" t="n">
         <v>107.8947368421053</v>
@@ -653,10 +653,10 @@
         <v>96.73386655770642</v>
       </c>
       <c r="D9" t="n">
-        <v>104.9161428571429</v>
+        <v>105.3994426927001</v>
       </c>
       <c r="E9" t="n">
-        <v>78.56541898343957</v>
+        <v>79.15356425400167</v>
       </c>
       <c r="F9" t="n">
         <v>100.9230769230769</v>
@@ -678,10 +678,10 @@
         <v>95.40275779188266</v>
       </c>
       <c r="D10" t="n">
-        <v>95.76133333333331</v>
+        <v>100.04175</v>
       </c>
       <c r="E10" t="n">
-        <v>79.11378453135755</v>
+        <v>76.81249163301271</v>
       </c>
       <c r="F10" t="n">
         <v>101.421052631579</v>
@@ -703,10 +703,10 @@
         <v>82.6632193949844</v>
       </c>
       <c r="D11" t="n">
-        <v>76.29968883893885</v>
+        <v>77.53412648774925</v>
       </c>
       <c r="E11" t="n">
-        <v>66.25483727326572</v>
+        <v>66.21570697970152</v>
       </c>
       <c r="F11" t="n">
         <v>99.26315789473684</v>
@@ -728,10 +728,10 @@
         <v>113.7292926913752</v>
       </c>
       <c r="D12" t="n">
-        <v>98.28918903318903</v>
+        <v>102.5307222222222</v>
       </c>
       <c r="E12" t="n">
-        <v>113.2616612781054</v>
+        <v>123.6139454434001</v>
       </c>
       <c r="F12" t="n">
         <v>105.4285714285714</v>
@@ -753,10 +753,10 @@
         <v>88.84371378175831</v>
       </c>
       <c r="D13" t="n">
-        <v>88.89037109673951</v>
+        <v>91.33033503350347</v>
       </c>
       <c r="E13" t="n">
-        <v>88.12686193651129</v>
+        <v>88.43464559920241</v>
       </c>
       <c r="F13" t="n">
         <v>97.10526315789473</v>
@@ -778,10 +778,10 @@
         <v>90.95982290303618</v>
       </c>
       <c r="D14" t="n">
-        <v>73.5825</v>
+        <v>70.48392857142858</v>
       </c>
       <c r="E14" t="n">
-        <v>69.13116905007145</v>
+        <v>69.5019113284101</v>
       </c>
       <c r="F14" t="n">
         <v>108.5294117647059</v>
@@ -803,10 +803,10 @@
         <v>93.24989834035242</v>
       </c>
       <c r="D15" t="n">
-        <v>87.0709642857143</v>
+        <v>89.26948498964802</v>
       </c>
       <c r="E15" t="n">
-        <v>95.8367611275273</v>
+        <v>96.47323839951697</v>
       </c>
       <c r="F15" t="n">
         <v>119.0322580645161</v>
@@ -828,10 +828,10 @@
         <v>89.77059612517021</v>
       </c>
       <c r="D16" t="n">
-        <v>83.28643504925029</v>
+        <v>84.25203789849942</v>
       </c>
       <c r="E16" t="n">
-        <v>85.04762881665484</v>
+        <v>84.83181117355694</v>
       </c>
       <c r="F16" t="n">
         <v>90.41025641025642</v>
@@ -853,10 +853,10 @@
         <v>91.67187942299466</v>
       </c>
       <c r="D17" t="n">
-        <v>91.23563095238094</v>
+        <v>91.62656546981981</v>
       </c>
       <c r="E17" t="n">
-        <v>86.18221046973093</v>
+        <v>86.98633996526438</v>
       </c>
       <c r="F17" t="n">
         <v>95.29729729729729</v>
@@ -878,10 +878,10 @@
         <v>88.39119611295681</v>
       </c>
       <c r="D18" t="n">
-        <v>88.25016203241202</v>
+        <v>94.65497358225933</v>
       </c>
       <c r="E18" t="n">
-        <v>85.30512107028534</v>
+        <v>85.63855127588099</v>
       </c>
       <c r="F18" t="n">
         <v>100.7428571428571</v>
@@ -903,10 +903,10 @@
         <v>74.59212756886478</v>
       </c>
       <c r="D19" t="n">
-        <v>74.63849841845995</v>
+        <v>77.41388096957222</v>
       </c>
       <c r="E19" t="n">
-        <v>67.64666226763417</v>
+        <v>65.48618015169509</v>
       </c>
       <c r="F19" t="n">
         <v>97.94444444444444</v>
@@ -928,10 +928,10 @@
         <v>91.90886110263034</v>
       </c>
       <c r="D20" t="n">
-        <v>87.26445318036473</v>
+        <v>85.01649729596919</v>
       </c>
       <c r="E20" t="n">
-        <v>112.9322469656593</v>
+        <v>112.9841878485121</v>
       </c>
       <c r="F20" t="n">
         <v>98.39999999999999</v>
@@ -953,10 +953,10 @@
         <v>97.73003809279209</v>
       </c>
       <c r="D21" t="n">
-        <v>97.04942857142855</v>
+        <v>97.44485377138753</v>
       </c>
       <c r="E21" t="n">
-        <v>105.1977767900114</v>
+        <v>105.301983767547</v>
       </c>
       <c r="F21" t="n">
         <v>90.86486486486487</v>
@@ -978,10 +978,10 @@
         <v>85.54278966193704</v>
       </c>
       <c r="D22" t="n">
-        <v>78.59690476190477</v>
+        <v>78.09327777777779</v>
       </c>
       <c r="E22" t="n">
-        <v>73.02816442887567</v>
+        <v>72.23089394316327</v>
       </c>
       <c r="F22" t="n">
         <v>90.86486486486487</v>
@@ -1003,10 +1003,10 @@
         <v>74.25554585126906</v>
       </c>
       <c r="D23" t="n">
-        <v>72.84422571434413</v>
+        <v>72.37887819714092</v>
       </c>
       <c r="E23" t="n">
-        <v>81.10351744622741</v>
+        <v>81.29002190880171</v>
       </c>
       <c r="F23" t="n">
         <v>82</v>
@@ -1028,10 +1028,10 @@
         <v>98.77731511259395</v>
       </c>
       <c r="D24" t="n">
-        <v>82.88698917748917</v>
+        <v>83.1427766798419</v>
       </c>
       <c r="E24" t="n">
-        <v>82.96395256472506</v>
+        <v>83.32904582535143</v>
       </c>
       <c r="F24" t="n">
         <v>84.10256410256409</v>
@@ -1053,10 +1053,10 @@
         <v>52.67757766604452</v>
       </c>
       <c r="D25" t="n">
-        <v>46.1957376496053</v>
+        <v>46.55510242535243</v>
       </c>
       <c r="E25" t="n">
-        <v>53.1647271626743</v>
+        <v>53.49189779809193</v>
       </c>
       <c r="F25" t="n">
         <v>84.15789473684211</v>
@@ -1078,10 +1078,10 @@
         <v>90.19974404423638</v>
       </c>
       <c r="D26" t="n">
-        <v>84.59313389388392</v>
+        <v>83.41808849074266</v>
       </c>
       <c r="E26" t="n">
-        <v>102.6120113051464</v>
+        <v>102.9014348714347</v>
       </c>
       <c r="F26" t="n">
         <v>91.37142857142858</v>
@@ -1103,10 +1103,10 @@
         <v>87.84072865127879</v>
       </c>
       <c r="D27" t="n">
-        <v>85.34568650793652</v>
+        <v>85.54048746884163</v>
       </c>
       <c r="E27" t="n">
-        <v>89.68214706565217</v>
+        <v>89.17084481884285</v>
       </c>
       <c r="F27" t="n">
         <v>84.15789473684211</v>
@@ -1128,10 +1128,10 @@
         <v>73.38010990958631</v>
       </c>
       <c r="D28" t="n">
-        <v>73.01594488844491</v>
+        <v>72.28406497981274</v>
       </c>
       <c r="E28" t="n">
-        <v>64.44987696099734</v>
+        <v>64.14083609059242</v>
       </c>
       <c r="F28" t="n">
         <v>86.43243243243242</v>
@@ -1153,10 +1153,10 @@
         <v>76.38117125784615</v>
       </c>
       <c r="D29" t="n">
-        <v>83.69159409938722</v>
+        <v>85.54306415968344</v>
       </c>
       <c r="E29" t="n">
-        <v>95.71069225889612</v>
+        <v>93.69744980904781</v>
       </c>
       <c r="F29" t="n">
         <v>88.83333333333333</v>
@@ -1178,10 +1178,10 @@
         <v>61.81611602913811</v>
       </c>
       <c r="D30" t="n">
-        <v>72.90991740578264</v>
+        <v>73.34710604488393</v>
       </c>
       <c r="E30" t="n">
-        <v>68.75591146264922</v>
+        <v>69.45946882650298</v>
       </c>
       <c r="F30" t="n">
         <v>84.21621621621621</v>
@@ -1203,10 +1203,10 @@
         <v>62.83837766086756</v>
       </c>
       <c r="D31" t="n">
-        <v>66.27548802178214</v>
+        <v>64.94474497214154</v>
       </c>
       <c r="E31" t="n">
-        <v>62.12613215079234</v>
+        <v>60.9853268520492</v>
       </c>
       <c r="F31" t="n">
         <v>79.8974358974359</v>
@@ -1228,10 +1228,10 @@
         <v>72.44733113895563</v>
       </c>
       <c r="D32" t="n">
-        <v>76.4483952991453</v>
+        <v>78.164490259137</v>
       </c>
       <c r="E32" t="n">
-        <v>85.00227416100574</v>
+        <v>84.50629547992877</v>
       </c>
       <c r="F32" t="n">
         <v>84.21621621621621</v>
@@ -1253,10 +1253,10 @@
         <v>87.71890800414806</v>
       </c>
       <c r="D33" t="n">
-        <v>82.4938212898213</v>
+        <v>85.60406495619328</v>
       </c>
       <c r="E33" t="n">
-        <v>83.27841534364032</v>
+        <v>82.59534659664793</v>
       </c>
       <c r="F33" t="n">
         <v>84.21621621621621</v>
@@ -1278,10 +1278,10 @@
         <v>102.1891921544255</v>
       </c>
       <c r="D34" t="n">
-        <v>95.77109523809524</v>
+        <v>98.6727760391782</v>
       </c>
       <c r="E34" t="n">
-        <v>113.0671647608415</v>
+        <v>112.3245706020852</v>
       </c>
       <c r="F34" t="n">
         <v>84.21621621621621</v>
@@ -1303,10 +1303,10 @@
         <v>70.23733413771726</v>
       </c>
       <c r="D35" t="n">
-        <v>71.81625759337282</v>
+        <v>72.57512578902868</v>
       </c>
       <c r="E35" t="n">
-        <v>84.80428225115239</v>
+        <v>85.18320722826483</v>
       </c>
       <c r="F35" t="n">
         <v>79.8974358974359</v>
@@ -1328,10 +1328,10 @@
         <v>80.58006022072664</v>
       </c>
       <c r="D36" t="n">
-        <v>64.745</v>
+        <v>63.18777777777778</v>
       </c>
       <c r="E36" t="n">
-        <v>71.06818001134287</v>
+        <v>70.47571213708024</v>
       </c>
       <c r="F36" t="n">
         <v>82</v>
@@ -1353,10 +1353,10 @@
         <v>99.19986796130698</v>
       </c>
       <c r="D37" t="n">
-        <v>98.27117460317459</v>
+        <v>98.10925599712877</v>
       </c>
       <c r="E37" t="n">
-        <v>104.767147222412</v>
+        <v>104.6240141414076</v>
       </c>
       <c r="F37" t="n">
         <v>89.23529411764706</v>
@@ -1378,10 +1378,10 @@
         <v>79.65295225591203</v>
       </c>
       <c r="D38" t="n">
-        <v>73.85296193022664</v>
+        <v>78.16632567230484</v>
       </c>
       <c r="E38" t="n">
-        <v>62.62108338729916</v>
+        <v>61.46255120594999</v>
       </c>
       <c r="F38" t="n">
         <v>82</v>
@@ -1403,10 +1403,10 @@
         <v>66.96352775131626</v>
       </c>
       <c r="D39" t="n">
-        <v>73.0564278665862</v>
+        <v>74.61128830341485</v>
       </c>
       <c r="E39" t="n">
-        <v>84.32844345772659</v>
+        <v>84.22642250369505</v>
       </c>
       <c r="F39" t="n">
         <v>82</v>
@@ -1428,10 +1428,10 @@
         <v>72.2336593001684</v>
       </c>
       <c r="D40" t="n">
-        <v>67.30198646013429</v>
+        <v>69.76106684981683</v>
       </c>
       <c r="E40" t="n">
-        <v>66.58065307444987</v>
+        <v>66.58058994200806</v>
       </c>
       <c r="F40" t="n">
         <v>79.78378378378379</v>
@@ -1453,10 +1453,10 @@
         <v>85.44304591105842</v>
       </c>
       <c r="D41" t="n">
-        <v>68.46112235803413</v>
+        <v>68.2310759741348</v>
       </c>
       <c r="E41" t="n">
-        <v>73.95329489243024</v>
+        <v>74.05654123120246</v>
       </c>
       <c r="F41" t="n">
         <v>84.34285714285713</v>
@@ -1478,10 +1478,10 @@
         <v>87.71399971537014</v>
       </c>
       <c r="D42" t="n">
-        <v>84.50506616161614</v>
+        <v>86.75283500871745</v>
       </c>
       <c r="E42" t="n">
-        <v>67.60302801946881</v>
+        <v>69.09433980156635</v>
       </c>
       <c r="F42" t="n">
         <v>77.68421052631578</v>
@@ -1503,10 +1503,10 @@
         <v>70.72145719632343</v>
       </c>
       <c r="D43" t="n">
-        <v>65.68159523809523</v>
+        <v>67.73763692828911</v>
       </c>
       <c r="E43" t="n">
-        <v>40.93105597706239</v>
+        <v>41.39605578863009</v>
       </c>
       <c r="F43" t="n">
         <v>84.34285714285713</v>
@@ -1528,10 +1528,10 @@
         <v>66.86506424055261</v>
       </c>
       <c r="D44" t="n">
-        <v>67.2467835629283</v>
+        <v>67.83670085470084</v>
       </c>
       <c r="E44" t="n">
-        <v>74.01356108487461</v>
+        <v>72.99824093039349</v>
       </c>
       <c r="F44" t="n">
         <v>77.56756756756756</v>
@@ -1553,10 +1553,10 @@
         <v>89.69847753640076</v>
       </c>
       <c r="D45" t="n">
-        <v>77.27902255639098</v>
+        <v>80.11376282051283</v>
       </c>
       <c r="E45" t="n">
-        <v>73.59997269098109</v>
+        <v>73.12423036995517</v>
       </c>
       <c r="F45" t="n">
         <v>82</v>
@@ -1578,10 +1578,10 @@
         <v>75.08066469674046</v>
       </c>
       <c r="D46" t="n">
-        <v>81.95771909319585</v>
+        <v>82.99261475629633</v>
       </c>
       <c r="E46" t="n">
-        <v>81.16922345481437</v>
+        <v>81.09062802871613</v>
       </c>
       <c r="F46" t="n">
         <v>77.56756756756756</v>
@@ -1603,10 +1603,10 @@
         <v>85.45251258773041</v>
       </c>
       <c r="D47" t="n">
-        <v>85.95110791985792</v>
+        <v>89.71711904761905</v>
       </c>
       <c r="E47" t="n">
-        <v>65.75208899264821</v>
+        <v>63.24154237485676</v>
       </c>
       <c r="F47" t="n">
         <v>77.56756756756756</v>
@@ -1628,10 +1628,10 @@
         <v>77.30113364596301</v>
       </c>
       <c r="D48" t="n">
-        <v>79.93057905982906</v>
+        <v>80.5154244776962</v>
       </c>
       <c r="E48" t="n">
-        <v>84.68774418231192</v>
+        <v>84.68285135861839</v>
       </c>
       <c r="F48" t="n">
         <v>82</v>
@@ -1653,10 +1653,10 @@
         <v>67.13248623313405</v>
       </c>
       <c r="D49" t="n">
-        <v>85.82066239316241</v>
+        <v>86.02286507936508</v>
       </c>
       <c r="E49" t="n">
-        <v>98.76754196457962</v>
+        <v>99.1374169224122</v>
       </c>
       <c r="F49" t="n">
         <v>75.52631578947368</v>
@@ -1678,10 +1678,10 @@
         <v>79.71035411430441</v>
       </c>
       <c r="D50" t="n">
-        <v>67.49313888888889</v>
+        <v>68.6674728459946</v>
       </c>
       <c r="E50" t="n">
-        <v>65.38458823829586</v>
+        <v>63.94813147953865</v>
       </c>
       <c r="F50" t="n">
         <v>77.44444444444444</v>
@@ -1703,10 +1703,10 @@
         <v>83.73544318200203</v>
       </c>
       <c r="D51" t="n">
-        <v>80.97015258171781</v>
+        <v>77.01102272049306</v>
       </c>
       <c r="E51" t="n">
-        <v>77.00408768439787</v>
+        <v>77.01327096652128</v>
       </c>
       <c r="F51" t="n">
         <v>82</v>
@@ -1728,10 +1728,10 @@
         <v>60.89725284857077</v>
       </c>
       <c r="D52" t="n">
-        <v>64.7658778100984</v>
+        <v>64.762787852339</v>
       </c>
       <c r="E52" t="n">
-        <v>62.57700979266476</v>
+        <v>62.30089312631495</v>
       </c>
       <c r="F52" t="n">
         <v>73.36842105263158</v>
@@ -1753,10 +1753,10 @@
         <v>73.09983853357292</v>
       </c>
       <c r="D53" t="n">
-        <v>61.88748412698413</v>
+        <v>60.06383333333334</v>
       </c>
       <c r="E53" t="n">
-        <v>42.98279962227506</v>
+        <v>45.20706919872679</v>
       </c>
       <c r="F53" t="n">
         <v>82</v>
@@ -1778,10 +1778,10 @@
         <v>69.57362787748929</v>
       </c>
       <c r="D54" t="n">
-        <v>70.84762499110796</v>
+        <v>69.62060867331435</v>
       </c>
       <c r="E54" t="n">
-        <v>84.74712956655732</v>
+        <v>85.8367882255386</v>
       </c>
       <c r="F54" t="n">
         <v>69.38461538461539</v>
@@ -1803,10 +1803,10 @@
         <v>85.06366496160743</v>
       </c>
       <c r="D55" t="n">
-        <v>68.89506060606061</v>
+        <v>72.98854535319754</v>
       </c>
       <c r="E55" t="n">
-        <v>44.96948004995688</v>
+        <v>45.97469160697248</v>
       </c>
       <c r="F55" t="n">
         <v>75.16666666666666</v>
@@ -1828,10 +1828,10 @@
         <v>64.27946767472548</v>
       </c>
       <c r="D56" t="n">
-        <v>71.30865022296544</v>
+        <v>72.49857389321205</v>
       </c>
       <c r="E56" t="n">
-        <v>83.79255857783977</v>
+        <v>83.90373485111179</v>
       </c>
       <c r="F56" t="n">
         <v>71.21052631578948</v>
@@ -1853,10 +1853,10 @@
         <v>55.24906887204089</v>
       </c>
       <c r="D57" t="n">
-        <v>50.55994410491469</v>
+        <v>52.26367508007989</v>
       </c>
       <c r="E57" t="n">
-        <v>64.52295953318946</v>
+        <v>63.98499451753968</v>
       </c>
       <c r="F57" t="n">
         <v>69.38461538461539</v>
@@ -1878,10 +1878,10 @@
         <v>75.19995842163232</v>
       </c>
       <c r="D58" t="n">
-        <v>73.11021048396049</v>
+        <v>73.6793519668737</v>
       </c>
       <c r="E58" t="n">
-        <v>75.40238864319213</v>
+        <v>75.01268603416115</v>
       </c>
       <c r="F58" t="n">
         <v>77.31428571428572</v>
@@ -1903,10 +1903,10 @@
         <v>60.64246085659116</v>
       </c>
       <c r="D59" t="n">
-        <v>60.78175</v>
+        <v>60.64583333333333</v>
       </c>
       <c r="E59" t="n">
-        <v>64.50264794158385</v>
+        <v>64.37063129835971</v>
       </c>
       <c r="F59" t="n">
         <v>69.38461538461539</v>
@@ -1928,10 +1928,10 @@
         <v>62.61145384202172</v>
       </c>
       <c r="D60" t="n">
-        <v>73.87430043941568</v>
+        <v>75.48382791967984</v>
       </c>
       <c r="E60" t="n">
-        <v>80.38371234904969</v>
+        <v>80.21092353874488</v>
       </c>
       <c r="F60" t="n">
         <v>71.21052631578948</v>
@@ -1953,10 +1953,10 @@
         <v>70.19109848436165</v>
       </c>
       <c r="D61" t="n">
-        <v>74.79847573375172</v>
+        <v>73.13623265280471</v>
       </c>
       <c r="E61" t="n">
-        <v>70.65340270233848</v>
+        <v>71.36353984434596</v>
       </c>
       <c r="F61" t="n">
         <v>70.91891891891892</v>
@@ -1978,10 +1978,10 @@
         <v>66.54060338699034</v>
       </c>
       <c r="D62" t="n">
-        <v>75.49899847374849</v>
+        <v>75.94621889161562</v>
       </c>
       <c r="E62" t="n">
-        <v>77.90091862368968</v>
+        <v>77.08368719159239</v>
       </c>
       <c r="F62" t="n">
         <v>69.05263157894737</v>
@@ -2003,10 +2003,10 @@
         <v>69.61883377337861</v>
       </c>
       <c r="D63" t="n">
-        <v>83.19597113997115</v>
+        <v>82.41702332316805</v>
       </c>
       <c r="E63" t="n">
-        <v>90.20487535562832</v>
+        <v>86.06359808831262</v>
       </c>
       <c r="F63" t="n">
         <v>79.51515151515152</v>
@@ -2028,10 +2028,10 @@
         <v>68.51088765496957</v>
       </c>
       <c r="D64" t="n">
-        <v>69.90095205189223</v>
+        <v>68.25932770694483</v>
       </c>
       <c r="E64" t="n">
-        <v>39.5840504766525</v>
+        <v>40.56708288464534</v>
       </c>
       <c r="F64" t="n">
         <v>74.76470588235294</v>
@@ -2053,10 +2053,10 @@
         <v>75.29079632213845</v>
       </c>
       <c r="D65" t="n">
-        <v>62.18522222222223</v>
+        <v>58.73483333333333</v>
       </c>
       <c r="E65" t="n">
-        <v>55.22795257724892</v>
+        <v>55.55235446661728</v>
       </c>
       <c r="F65" t="n">
         <v>65.17948717948718</v>
@@ -2078,10 +2078,10 @@
         <v>74.35262755399361</v>
       </c>
       <c r="D66" t="n">
-        <v>69.94278353409875</v>
+        <v>69.9354330772931</v>
       </c>
       <c r="E66" t="n">
-        <v>84.51594308576362</v>
+        <v>83.6082627462531</v>
       </c>
       <c r="F66" t="n">
         <v>70.61111111111111</v>
@@ -2103,10 +2103,10 @@
         <v>54.20558431234402</v>
       </c>
       <c r="D67" t="n">
-        <v>45.93173701298701</v>
+        <v>46.75403571428572</v>
       </c>
       <c r="E67" t="n">
-        <v>49.37440908061437</v>
+        <v>49.62716457472091</v>
       </c>
       <c r="F67" t="n">
         <v>72.62857142857142</v>
@@ -2128,10 +2128,10 @@
         <v>68.4039158949858</v>
       </c>
       <c r="D68" t="n">
-        <v>56.71090836940837</v>
+        <v>55.20533333333333</v>
       </c>
       <c r="E68" t="n">
-        <v>44.88783420621084</v>
+        <v>43.29799439377707</v>
       </c>
       <c r="F68" t="n">
         <v>66.89473684210526</v>
@@ -2153,10 +2153,10 @@
         <v>64.45297734509344</v>
       </c>
       <c r="D69" t="n">
-        <v>78.99327574189095</v>
+        <v>77.57453979612579</v>
       </c>
       <c r="E69" t="n">
-        <v>82.5221750012727</v>
+        <v>83.57425376267699</v>
       </c>
       <c r="F69" t="n">
         <v>68.70270270270271</v>
@@ -2178,10 +2178,10 @@
         <v>57.47338262051284</v>
       </c>
       <c r="D70" t="n">
-        <v>62.7231181122799</v>
+        <v>62.2467946490071</v>
       </c>
       <c r="E70" t="n">
-        <v>61.60665569959939</v>
+        <v>62.38661332738467</v>
       </c>
       <c r="F70" t="n">
         <v>63.55</v>
@@ -2203,10 +2203,10 @@
         <v>62.46113209933925</v>
       </c>
       <c r="D71" t="n">
-        <v>71.92659451659452</v>
+        <v>72.47503787878787</v>
       </c>
       <c r="E71" t="n">
-        <v>84.20612937453072</v>
+        <v>84.06888578822308</v>
       </c>
       <c r="F71" t="n">
         <v>66.89473684210526</v>
@@ -2228,10 +2228,10 @@
         <v>54.84406091391971</v>
       </c>
       <c r="D72" t="n">
-        <v>54.08317169595112</v>
+        <v>50.23775</v>
       </c>
       <c r="E72" t="n">
-        <v>43.60044808878992</v>
+        <v>43.14159462181546</v>
       </c>
       <c r="F72" t="n">
         <v>65.17948717948718</v>
@@ -2253,10 +2253,10 @@
         <v>51.5573048753835</v>
       </c>
       <c r="D73" t="n">
-        <v>45.53896325896326</v>
+        <v>46.92188542992955</v>
       </c>
       <c r="E73" t="n">
-        <v>42.73971454600921</v>
+        <v>44.11022364056353</v>
       </c>
       <c r="F73" t="n">
         <v>63.07692307692308</v>
@@ -2278,10 +2278,10 @@
         <v>74.33759486272027</v>
       </c>
       <c r="D74" t="n">
-        <v>64.86650000000002</v>
+        <v>64.61832072829132</v>
       </c>
       <c r="E74" t="n">
-        <v>69.53723545817162</v>
+        <v>70.23461783413704</v>
       </c>
       <c r="F74" t="n">
         <v>66.48648648648648</v>
@@ -2303,10 +2303,10 @@
         <v>67.20942781843488</v>
       </c>
       <c r="D75" t="n">
-        <v>68.42324340008651</v>
+        <v>66.34101155740812</v>
       </c>
       <c r="E75" t="n">
-        <v>70.67634318144363</v>
+        <v>71.35592109546437</v>
       </c>
       <c r="F75" t="n">
         <v>72.35294117647058</v>
@@ -2328,10 +2328,10 @@
         <v>66.40206062687534</v>
       </c>
       <c r="D76" t="n">
-        <v>77.44861904761906</v>
+        <v>76.99302005012531</v>
       </c>
       <c r="E76" t="n">
-        <v>67.5679084659906</v>
+        <v>66.91351267782099</v>
       </c>
       <c r="F76" t="n">
         <v>62.57894736842105</v>
@@ -2353,10 +2353,10 @@
         <v>55.75771928193907</v>
       </c>
       <c r="D77" t="n">
-        <v>50.21451623376623</v>
+        <v>53.67842857142858</v>
       </c>
       <c r="E77" t="n">
-        <v>55.26630884030883</v>
+        <v>55.05827169879167</v>
       </c>
       <c r="F77" t="n">
         <v>66.05555555555556</v>
@@ -2378,10 +2378,10 @@
         <v>78.3286974358154</v>
       </c>
       <c r="D78" t="n">
-        <v>84.38729670329671</v>
+        <v>91.78894310367996</v>
       </c>
       <c r="E78" t="n">
-        <v>62.96883218565239</v>
+        <v>62.006719263314</v>
       </c>
       <c r="F78" t="n">
         <v>67.94285714285715</v>
@@ -2403,10 +2403,10 @@
         <v>58.8044275998305</v>
       </c>
       <c r="D79" t="n">
-        <v>46.06708333333333</v>
+        <v>45.02964285714286</v>
       </c>
       <c r="E79" t="n">
-        <v>51.70791160055366</v>
+        <v>50.31684801240858</v>
       </c>
       <c r="F79" t="n">
         <v>60.97435897435898</v>
@@ -2428,10 +2428,10 @@
         <v>60.49948181518844</v>
       </c>
       <c r="D80" t="n">
-        <v>56.34133333333334</v>
+        <v>56.38666666666666</v>
       </c>
       <c r="E80" t="n">
-        <v>44.69406100508454</v>
+        <v>44.81095183106336</v>
       </c>
       <c r="F80" t="n">
         <v>64.27027027027027</v>
@@ -2453,10 +2453,10 @@
         <v>58.48901712755262</v>
       </c>
       <c r="D81" t="n">
-        <v>51.7202840909091</v>
+        <v>52.98820238095238</v>
       </c>
       <c r="E81" t="n">
-        <v>68.95109803213595</v>
+        <v>70.23895091332859</v>
       </c>
       <c r="F81" t="n">
         <v>62.57894736842105</v>
@@ -2478,10 +2478,10 @@
         <v>60.33264782876827</v>
       </c>
       <c r="D82" t="n">
-        <v>56.68632051282052</v>
+        <v>55.42434523809524</v>
       </c>
       <c r="E82" t="n">
-        <v>65.57807641882354</v>
+        <v>64.96233523225109</v>
       </c>
       <c r="F82" t="n">
         <v>62.57894736842105</v>
@@ -2503,10 +2503,10 @@
         <v>52.53734871859643</v>
       </c>
       <c r="D83" t="n">
-        <v>49.26358333333334</v>
+        <v>51.20828571428572</v>
       </c>
       <c r="E83" t="n">
-        <v>43.00230140815813</v>
+        <v>44.62873701434371</v>
       </c>
       <c r="F83" t="n">
         <v>82</v>
@@ -2528,10 +2528,10 @@
         <v>69.06420912536584</v>
       </c>
       <c r="D84" t="n">
-        <v>57.13019696969697</v>
+        <v>57.07471195471194</v>
       </c>
       <c r="E84" t="n">
-        <v>44.40061921475591</v>
+        <v>44.50416783970465</v>
       </c>
       <c r="F84" t="n">
         <v>62.05405405405406</v>
@@ -2553,10 +2553,10 @@
         <v>68.34623936671102</v>
       </c>
       <c r="D85" t="n">
-        <v>64.60185042735043</v>
+        <v>65.24739285714286</v>
       </c>
       <c r="E85" t="n">
-        <v>66.5320323082375</v>
+        <v>64.35447633931848</v>
       </c>
       <c r="F85" t="n">
         <v>62.05405405405406</v>
@@ -2578,10 +2578,10 @@
         <v>51.22328169559831</v>
       </c>
       <c r="D86" t="n">
-        <v>68.25732972419738</v>
+        <v>66.43478932070761</v>
       </c>
       <c r="E86" t="n">
-        <v>73.86652140172615</v>
+        <v>73.24015657225982</v>
       </c>
       <c r="F86" t="n">
         <v>60.42105263157895</v>
@@ -2603,10 +2603,10 @@
         <v>76.52484356504115</v>
       </c>
       <c r="D87" t="n">
-        <v>77.31892731829574</v>
+        <v>76.33835508948208</v>
       </c>
       <c r="E87" t="n">
-        <v>84.5425268252589</v>
+        <v>84.43598836843088</v>
       </c>
       <c r="F87" t="n">
         <v>62.05405405405406</v>
@@ -2628,10 +2628,10 @@
         <v>99.75226951316927</v>
       </c>
       <c r="D88" t="n">
-        <v>93.1353354978355</v>
+        <v>89.94041102633065</v>
       </c>
       <c r="E88" t="n">
-        <v>109.5442190975059</v>
+        <v>108.991953578439</v>
       </c>
       <c r="F88" t="n">
         <v>88.30769230769231</v>
@@ -2653,10 +2653,10 @@
         <v>66.09758632886954</v>
       </c>
       <c r="D89" t="n">
-        <v>59.81150793650794</v>
+        <v>62.16588461538461</v>
       </c>
       <c r="E89" t="n">
-        <v>61.11165663944147</v>
+        <v>61.20215949290713</v>
       </c>
       <c r="F89" t="n">
         <v>58.26315789473684</v>
@@ -2678,10 +2678,10 @@
         <v>60.3795890301249</v>
       </c>
       <c r="D90" t="n">
-        <v>65.10894784201308</v>
+        <v>66.12694618758434</v>
       </c>
       <c r="E90" t="n">
-        <v>64.54263827599159</v>
+        <v>64.94581202559752</v>
       </c>
       <c r="F90" t="n">
         <v>61.5</v>
@@ -2703,10 +2703,10 @@
         <v>70.00223245551362</v>
       </c>
       <c r="D91" t="n">
-        <v>69.1987333897986</v>
+        <v>73.50921408635224</v>
       </c>
       <c r="E91" t="n">
-        <v>84.31667619656582</v>
+        <v>83.77862261119581</v>
       </c>
       <c r="F91" t="n">
         <v>56.76923076923077</v>
@@ -2728,10 +2728,10 @@
         <v>53.43895786493609</v>
       </c>
       <c r="D92" t="n">
-        <v>53.23230555555556</v>
+        <v>52.52894444444445</v>
       </c>
       <c r="E92" t="n">
-        <v>54.6528742839356</v>
+        <v>55.02779111448415</v>
       </c>
       <c r="F92" t="n">
         <v>58.26315789473684</v>
@@ -2753,10 +2753,10 @@
         <v>34.4915699909894</v>
       </c>
       <c r="D93" t="n">
-        <v>45.53744844508777</v>
+        <v>46.50809149991733</v>
       </c>
       <c r="E93" t="n">
-        <v>43.83802729396034</v>
+        <v>44.39864999873312</v>
       </c>
       <c r="F93" t="n">
         <v>58.26315789473684</v>
@@ -2778,10 +2778,10 @@
         <v>67.75056163975813</v>
       </c>
       <c r="D94" t="n">
-        <v>75.72330128205128</v>
+        <v>83.7481130952381</v>
       </c>
       <c r="E94" t="n">
-        <v>70.08782485933297</v>
+        <v>69.42752849475423</v>
       </c>
       <c r="F94" t="n">
         <v>59.83783783783784</v>
@@ -2803,10 +2803,10 @@
         <v>63.92664410218465</v>
       </c>
       <c r="D95" t="n">
-        <v>56.70815079365079</v>
+        <v>57.20933333333333</v>
       </c>
       <c r="E95" t="n">
-        <v>43.01979805697209</v>
+        <v>44.55205830868483</v>
       </c>
       <c r="F95" t="n">
         <v>59.83783783783784</v>
@@ -2828,10 +2828,10 @@
         <v>53.83864433353526</v>
       </c>
       <c r="D96" t="n">
-        <v>45.48941666666666</v>
+        <v>47.49764393939395</v>
       </c>
       <c r="E96" t="n">
-        <v>55.8131113146599</v>
+        <v>55.54856467547888</v>
       </c>
       <c r="F96" t="n">
         <v>59.83783783783784</v>
@@ -2853,10 +2853,10 @@
         <v>80.83273999855689</v>
       </c>
       <c r="D97" t="n">
-        <v>73.32907295482296</v>
+        <v>73.79268548118549</v>
       </c>
       <c r="E97" t="n">
-        <v>66.26825988809155</v>
+        <v>66.55518722226118</v>
       </c>
       <c r="F97" t="n">
         <v>65.11764705882352</v>
@@ -2878,10 +2878,10 @@
         <v>79.74053036725044</v>
       </c>
       <c r="D98" t="n">
-        <v>69.78631746031746</v>
+        <v>68.54600000000001</v>
       </c>
       <c r="E98" t="n">
-        <v>45.01168911015738</v>
+        <v>46.38595904135933</v>
       </c>
       <c r="F98" t="n">
         <v>58.26315789473684</v>
@@ -2903,10 +2903,10 @@
         <v>54.45337854388874</v>
       </c>
       <c r="D99" t="n">
-        <v>36.5953863913864</v>
+        <v>36.49890584415584</v>
       </c>
       <c r="E99" t="n">
-        <v>28.36209471926037</v>
+        <v>27.83041947020475</v>
       </c>
       <c r="F99" t="n">
         <v>59.83783783783784</v>
@@ -2928,10 +2928,10 @@
         <v>72.98143862707141</v>
       </c>
       <c r="D100" t="n">
-        <v>64.68390664942213</v>
+        <v>65.64075651025554</v>
       </c>
       <c r="E100" t="n">
-        <v>65.95457691619789</v>
+        <v>65.72290989920494</v>
       </c>
       <c r="F100" t="n">
         <v>58.26315789473684</v>
@@ -2953,10 +2953,10 @@
         <v>62.50546735414476</v>
       </c>
       <c r="D101" t="n">
-        <v>54.94238095238095</v>
+        <v>56.54301515151516</v>
       </c>
       <c r="E101" t="n">
-        <v>73.65440013018315</v>
+        <v>73.80243803238508</v>
       </c>
       <c r="F101" t="n">
         <v>63.25714285714286</v>
